--- a/public/assets/main-total-prod.xlsx
+++ b/public/assets/main-total-prod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\EMEAREPORT\my-app\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E527783E-3861-429A-9408-482E132622AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB28E7E-18C1-4529-AAFF-539F638F696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0A60286-670E-40AE-8F59-128E7048F302}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0A60286-670E-40AE-8F59-128E7048F302}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="103">
   <si>
     <t>Quarter</t>
   </si>
@@ -318,6 +318,36 @@
   </si>
   <si>
     <t>6.22</t>
+  </si>
+  <si>
+    <t>CPMM GOAL</t>
+  </si>
+  <si>
+    <t>IPMM GOAL</t>
+  </si>
+  <si>
+    <t>5.69</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>4.74</t>
+  </si>
+  <si>
+    <t>10.43</t>
+  </si>
+  <si>
+    <t>4.32</t>
+  </si>
+  <si>
+    <t>5.09</t>
   </si>
 </sst>
 </file>
@@ -381,7 +411,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -396,6 +426,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,8 +766,8 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,9 +782,11 @@
     <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -793,8 +826,14 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -834,8 +873,14 @@
       <c r="M2" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -876,8 +921,14 @@
         <f>18+24</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -919,8 +970,14 @@
         <f>9+6+15+1</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -962,8 +1019,14 @@
         <f>35+17+1</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1004,8 +1067,14 @@
         <f>18+18+45+8</f>
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1047,8 +1116,14 @@
         <f>8+4</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1092,8 +1167,14 @@
         <f>2+4+21+1+117+21+8+1+1+5+4+10+2+56+55+26+9+2+10+176+4+7+13+19+91+16+17+5+1+9+1</f>
         <v>714</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1133,8 +1214,14 @@
       <c r="M9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1176,8 +1263,14 @@
         <f>110+6+26+2+3</f>
         <v>147</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1217,8 +1310,14 @@
       <c r="M11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1259,8 +1358,14 @@
         <f>8+13+2+2</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1300,8 +1405,14 @@
       <c r="M13" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1341,8 +1452,14 @@
       <c r="M14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>100</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1382,8 +1499,14 @@
       <c r="M15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1424,6 +1547,12 @@
         <f>9+0</f>
         <v>9</v>
       </c>
+      <c r="N16" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1466,6 +1595,12 @@
         <f>45+15</f>
         <v>60</v>
       </c>
+      <c r="N17" t="s">
+        <v>100</v>
+      </c>
+      <c r="O17" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1507,6 +1642,12 @@
       <c r="M18" s="2">
         <v>5</v>
       </c>
+      <c r="N18" t="s">
+        <v>100</v>
+      </c>
+      <c r="O18" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1548,6 +1689,12 @@
       <c r="M19" s="2">
         <v>4</v>
       </c>
+      <c r="N19" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1589,6 +1736,12 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
+      <c r="N20" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1630,7 +1783,12 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="O21" s="5"/>
+      <c r="N21" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1672,6 +1830,12 @@
       <c r="M22" s="2">
         <v>0</v>
       </c>
+      <c r="N22" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1713,6 +1877,12 @@
       <c r="M23" s="2">
         <v>0</v>
       </c>
+      <c r="N23" t="s">
+        <v>100</v>
+      </c>
+      <c r="O23" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1754,6 +1924,12 @@
       <c r="M24" s="2">
         <v>0</v>
       </c>
+      <c r="N24" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
@@ -1800,6 +1976,12 @@
         <f>SUM(M2:M24)</f>
         <v>1202</v>
       </c>
+      <c r="N25" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1841,6 +2023,12 @@
       <c r="M26">
         <v>0</v>
       </c>
+      <c r="N26" t="s">
+        <v>95</v>
+      </c>
+      <c r="O26" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1882,6 +2070,12 @@
       <c r="M27">
         <v>0</v>
       </c>
+      <c r="N27" t="s">
+        <v>95</v>
+      </c>
+      <c r="O27" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1924,6 +2118,12 @@
         <f>9+14+11+2</f>
         <v>36</v>
       </c>
+      <c r="N28" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1968,6 +2168,12 @@
         <f>45+69+3</f>
         <v>117</v>
       </c>
+      <c r="N29" t="s">
+        <v>95</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2011,6 +2217,12 @@
         <f>16+7+32+7</f>
         <v>62</v>
       </c>
+      <c r="N30" t="s">
+        <v>95</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -2052,6 +2264,12 @@
       <c r="M31">
         <v>0</v>
       </c>
+      <c r="N31" t="s">
+        <v>99</v>
+      </c>
+      <c r="O31" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -2097,8 +2315,14 @@
         <f>1+126+11+7+5+1+10+10+54+88+21+11+3+8+156+8+3+4+10+5+4+97+17+27+3+3+2+2</f>
         <v>697</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N32" t="s">
+        <v>99</v>
+      </c>
+      <c r="O32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2139,8 +2363,14 @@
         <f>23+21</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N33" t="s">
+        <v>100</v>
+      </c>
+      <c r="O33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -2180,8 +2410,14 @@
       <c r="M34">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N34" t="s">
+        <v>100</v>
+      </c>
+      <c r="O34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2221,8 +2457,14 @@
       <c r="M35">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N35" t="s">
+        <v>100</v>
+      </c>
+      <c r="O35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2263,8 +2505,14 @@
         <f>23+31+1+5</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36" t="s">
+        <v>100</v>
+      </c>
+      <c r="O36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -2304,8 +2552,14 @@
       <c r="M37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N37" t="s">
+        <v>100</v>
+      </c>
+      <c r="O37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -2345,8 +2599,14 @@
       <c r="M38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N38" t="s">
+        <v>100</v>
+      </c>
+      <c r="O38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -2386,8 +2646,14 @@
       <c r="M39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N39" t="s">
+        <v>100</v>
+      </c>
+      <c r="O39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -2427,8 +2693,14 @@
       <c r="M40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N40" t="s">
+        <v>100</v>
+      </c>
+      <c r="O40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -2469,8 +2741,14 @@
         <f>52+26+1</f>
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N41" t="s">
+        <v>100</v>
+      </c>
+      <c r="O41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -2510,8 +2788,14 @@
       <c r="M42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N42" t="s">
+        <v>100</v>
+      </c>
+      <c r="O42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -2551,8 +2835,14 @@
       <c r="M43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N43" t="s">
+        <v>100</v>
+      </c>
+      <c r="O43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2592,8 +2882,14 @@
       <c r="M44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N44" t="s">
+        <v>100</v>
+      </c>
+      <c r="O44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -2633,8 +2929,14 @@
       <c r="M45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N45" t="s">
+        <v>100</v>
+      </c>
+      <c r="O45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -2675,8 +2977,14 @@
         <f>13+9</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N46" t="s">
+        <v>100</v>
+      </c>
+      <c r="O46" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -2716,8 +3024,14 @@
       <c r="M47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N47" t="s">
+        <v>100</v>
+      </c>
+      <c r="O47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -2757,8 +3071,14 @@
       <c r="M48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" t="s">
+        <v>101</v>
+      </c>
+      <c r="O48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>62</v>
       </c>
@@ -2803,8 +3123,14 @@
         <f>SUM(M26:M48)</f>
         <v>1238</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N49" t="s">
+        <v>102</v>
+      </c>
+      <c r="O49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="G51" s="6">
         <f>((E49+E25)/(C49+C25))*(12/6)</f>
         <v>3.2352941176470591E-2</v>
